--- a/data/preferences.xlsx
+++ b/data/preferences.xlsx
@@ -129,7 +129,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,13 +155,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -221,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,10 +232,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,17 +319,17 @@
   <dimension ref="A1:U65531"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P7" activeCellId="0" sqref="P7:Q7"/>
+      <selection pane="topRight" activeCell="T3" activeCellId="0" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="12" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -406,7 +395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -414,113 +403,113 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="4"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="4"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -536,25 +525,25 @@
         <v>25</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="4"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="4"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -566,13 +555,13 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -581,7 +570,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -604,9 +593,9 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -623,15 +612,15 @@
       <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -639,13 +628,13 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -656,7 +645,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -668,20 +657,20 @@
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="4"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -700,13 +689,13 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -722,8 +711,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
